--- a/Project/DataTable/Excel/角色Buff配置表.xlsx
+++ b/Project/DataTable/Excel/角色Buff配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>Id</t>
   </si>
@@ -309,6 +309,15 @@
   <si>
     <t>变羊术</t>
   </si>
+  <si>
+    <t>击飞</t>
+  </si>
+  <si>
+    <t>击倒</t>
+  </si>
+  <si>
+    <t>击退</t>
+  </si>
 </sst>
 </file>
 
@@ -317,8 +326,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -748,10 +757,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="$A1:$XFD40"/>
+  <dimension ref="$A1:$XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -66825,7 +66834,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -68244,6 +68253,156 @@
       </c>
       <c r="P40" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>201037</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>201038</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>24</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>201039</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>25</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Project/DataTable/Excel/角色Buff配置表.xlsx
+++ b/Project/DataTable/Excel/角色Buff配置表.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="$A1:$XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -66834,7 +66834,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>2</v>

--- a/Project/DataTable/Excel/角色Buff配置表.xlsx
+++ b/Project/DataTable/Excel/角色Buff配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Buff" sheetId="1" r:id="rId1"/>
@@ -324,10 +324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -760,7 +760,7 @@
   <dimension ref="$A1:$XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -66834,7 +66834,7 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>2</v>

--- a/Project/DataTable/Excel/角色Buff配置表.xlsx
+++ b/Project/DataTable/Excel/角色Buff配置表.xlsx
@@ -324,8 +324,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -759,8 +759,8 @@
   <sheetPr/>
   <dimension ref="$A1:$XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
